--- a/Hardware/bom.xlsx
+++ b/Hardware/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Sekolah\FYP\Reports\Final Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79D9EF-09CA-4FC5-A869-6AEB84FC514E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A3D73E-305F-4178-844B-F868D1BBCC8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9104EBD9-BAFD-462F-8711-83ABE89E2EF4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>•</t>
   </si>
@@ -343,6 +343,36 @@
   </si>
   <si>
     <t>HKUST Robotics Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pulley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Arduino 9-Axis Motion Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Remote Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bottom Lid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Push Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Handle (Right)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Handle (Left)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Propeller</t>
   </si>
 </sst>
 </file>
@@ -381,7 +411,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +448,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1316,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1516,6 +1640,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1552,30 +1694,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="66" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1887,10 +2044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1907,24 +2064,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
       <c r="F3" s="4" t="s">
         <v>96</v>
       </c>
@@ -1936,11 +2093,11 @@
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
       <c r="F4" s="4" t="s">
         <v>90</v>
       </c>
@@ -1952,11 +2109,11 @@
       <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
         <v>94</v>
@@ -1966,11 +2123,11 @@
       <c r="A6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
         <v>89</v>
@@ -1980,11 +2137,11 @@
       <c r="A7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11" t="s">
         <v>88</v>
@@ -1994,11 +2151,11 @@
       <c r="A8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
       <c r="F8" s="4" t="s">
         <v>91</v>
       </c>
@@ -2010,11 +2167,11 @@
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
         <v>103</v>
@@ -2024,36 +2181,36 @@
       <c r="A10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="G10" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="114">
-        <v>1</v>
-      </c>
-      <c r="C12" s="115">
+      <c r="B12" s="102">
+        <v>1</v>
+      </c>
+      <c r="C12" s="103">
         <v>2</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="104">
         <v>3</v>
       </c>
-      <c r="E12" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="115" t="s">
+      <c r="E12" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="106" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2077,7 +2234,7 @@
     </row>
     <row r="14" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>200005</v>
+        <v>200006</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
@@ -2095,7 +2252,7 @@
     </row>
     <row r="15" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
-        <v>300017</v>
+        <v>300018</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
@@ -2113,7 +2270,7 @@
     </row>
     <row r="16" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
-        <v>300021</v>
+        <v>300022</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
@@ -2131,7 +2288,7 @@
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
-        <v>300022</v>
+        <v>300023</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
@@ -2149,7 +2306,7 @@
     </row>
     <row r="18" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
-        <v>400027</v>
+        <v>300024</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
@@ -2157,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F18" s="24">
         <v>1</v>
@@ -2167,43 +2324,43 @@
     </row>
     <row r="19" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
-        <v>500047</v>
+        <v>400031</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="26" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F19" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>200007</v>
+      <c r="A20" s="28">
+        <v>500056</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="s">
-        <v>0</v>
-      </c>
+      <c r="C20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -2211,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F21" s="24">
         <v>1</v>
@@ -2229,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="24">
         <v>1</v>
@@ -2239,7 +2396,7 @@
     </row>
     <row r="23" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
-        <v>200012</v>
+        <v>200011</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -2247,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="20"/>
@@ -2265,17 +2422,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F24" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>500050</v>
+      <c r="A25" s="22">
+        <v>200014</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
@@ -2283,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
@@ -2293,7 +2450,7 @@
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>500051</v>
+        <v>500059</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -2301,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F26" s="24">
         <v>1</v>
@@ -2311,7 +2468,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
-        <v>500052</v>
+        <v>500060</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -2319,93 +2476,93 @@
         <v>0</v>
       </c>
       <c r="E27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>500061</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="24">
-        <v>1</v>
-      </c>
-      <c r="G27" s="27" t="s">
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
-        <v>500053</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33" t="s">
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <v>500062</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="31">
-        <v>1</v>
-      </c>
-      <c r="G28" s="34" t="s">
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
         <v>100002</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39" t="s">
+      <c r="B30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F30" s="37">
         <v>2</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
-        <v>200006</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45" t="s">
+      <c r="G30" s="40"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
+        <v>200007</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="43">
-        <v>1</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
-        <v>400028</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="49">
-        <v>1</v>
-      </c>
-      <c r="G31" s="52"/>
+      <c r="F31" s="43">
+        <v>1</v>
+      </c>
+      <c r="G31" s="46"/>
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
-        <v>700066</v>
+        <v>400032</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">
@@ -2413,7 +2570,7 @@
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="49">
         <v>1</v>
@@ -2423,7 +2580,7 @@
     </row>
     <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
-        <v>700067</v>
+        <v>700075</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
@@ -2431,7 +2588,7 @@
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="49">
         <v>1</v>
@@ -2441,7 +2598,7 @@
     </row>
     <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
-        <v>300018</v>
+        <v>700076</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
@@ -2449,7 +2606,7 @@
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F34" s="49">
         <v>1</v>
@@ -2459,33 +2616,33 @@
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
-        <v>300023</v>
+        <v>400033</v>
       </c>
       <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C35" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="50"/>
       <c r="E35" s="51" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F35" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="52"/>
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
-        <v>400029</v>
+        <v>300019</v>
       </c>
       <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C36" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="50"/>
       <c r="E36" s="51" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F36" s="49">
         <v>1</v>
@@ -2495,7 +2652,7 @@
     </row>
     <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
-        <v>400030</v>
+        <v>300025</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
@@ -2503,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" s="49">
         <v>1</v>
@@ -2513,7 +2670,7 @@
     </row>
     <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
-        <v>400031</v>
+        <v>400034</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
@@ -2521,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" s="49">
         <v>1</v>
@@ -2531,7 +2688,7 @@
     </row>
     <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
-        <v>400032</v>
+        <v>400035</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
@@ -2539,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F39" s="49">
         <v>1</v>
@@ -2549,7 +2706,7 @@
     </row>
     <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
-        <v>600063</v>
+        <v>400036</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
@@ -2557,17 +2714,17 @@
         <v>0</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G40" s="52"/>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
-        <v>600065</v>
+        <v>400037</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="49"/>
@@ -2575,35 +2732,35 @@
         <v>0</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F41" s="49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
-        <v>500048</v>
+        <v>600072</v>
       </c>
       <c r="B42" s="48"/>
-      <c r="C42" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="50"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E42" s="51" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F42" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="52"/>
       <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
-        <v>200008</v>
+        <v>600074</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
@@ -2611,35 +2768,35 @@
         <v>0</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F43" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G43" s="52"/>
       <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
-        <v>200009</v>
+        <v>500057</v>
       </c>
       <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C44" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="50"/>
       <c r="E44" s="51" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F44" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="52"/>
       <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
-        <v>200012</v>
+        <v>200009</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
@@ -2647,17 +2804,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F45" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="52"/>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
-        <v>200014</v>
+        <v>200010</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
@@ -2665,17 +2822,17 @@
         <v>0</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F46" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
-        <v>500050</v>
+        <v>200013</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
@@ -2683,17 +2840,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F47" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
-        <v>500053</v>
+        <v>200015</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
@@ -2701,27 +2858,25 @@
         <v>0</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F48" s="49">
         <v>1</v>
       </c>
-      <c r="G48" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="G48" s="52"/>
       <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
-        <v>500049</v>
+        <v>500059</v>
       </c>
       <c r="B49" s="48"/>
-      <c r="C49" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="50"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E49" s="51" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F49" s="49">
         <v>1</v>
@@ -2731,7 +2886,7 @@
     </row>
     <row r="50" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
-        <v>200007</v>
+        <v>500062</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -2739,25 +2894,27 @@
         <v>0</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F50" s="49">
         <v>1</v>
       </c>
-      <c r="G50" s="52"/>
+      <c r="G50" s="52" t="s">
+        <v>62</v>
+      </c>
       <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53">
-        <v>200009</v>
+      <c r="A51" s="47">
+        <v>500058</v>
       </c>
       <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C51" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="50"/>
       <c r="E51" s="51" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F51" s="49">
         <v>1</v>
@@ -2766,8 +2923,8 @@
       <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53">
-        <v>200011</v>
+      <c r="A52" s="47">
+        <v>200008</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
@@ -2775,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F52" s="49">
         <v>1</v>
@@ -2784,8 +2941,8 @@
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
-        <v>200012</v>
+      <c r="A53" s="53">
+        <v>200010</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="49"/>
@@ -2793,17 +2950,17 @@
         <v>0</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47">
-        <v>200013</v>
+      <c r="A54" s="53">
+        <v>200012</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="49"/>
@@ -2811,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F54" s="49">
         <v>1</v>
@@ -2821,7 +2978,7 @@
     </row>
     <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
-        <v>500050</v>
+        <v>200013</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="49"/>
@@ -2829,53 +2986,53 @@
         <v>0</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F55" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
-        <v>400033</v>
+        <v>200014</v>
       </c>
       <c r="B56" s="48"/>
-      <c r="C56" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="50"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E56" s="51" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F56" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="52"/>
       <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
-        <v>400034</v>
+        <v>500059</v>
       </c>
       <c r="B57" s="48"/>
-      <c r="C57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="50"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E57" s="51" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F57" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
-        <v>500054</v>
+        <v>400038</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="49" t="s">
@@ -2883,7 +3040,7 @@
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="51" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F58" s="49">
         <v>2</v>
@@ -2893,7 +3050,7 @@
     </row>
     <row r="59" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
-        <v>300019</v>
+        <v>400039</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="49" t="s">
@@ -2901,7 +3058,7 @@
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="49">
         <v>2</v>
@@ -2911,43 +3068,43 @@
     </row>
     <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
-        <v>300024</v>
+        <v>500063</v>
       </c>
       <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C60" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="50"/>
       <c r="E60" s="51" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F60" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="52"/>
       <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47">
-        <v>300025</v>
+        <v>300020</v>
       </c>
       <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="C61" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="50"/>
       <c r="E61" s="51" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F61" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="52"/>
       <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47">
-        <v>400035</v>
+        <v>300026</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="49"/>
@@ -2955,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" s="49">
         <v>1</v>
@@ -2965,7 +3122,7 @@
     </row>
     <row r="63" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
-        <v>400036</v>
+        <v>300027</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="49"/>
@@ -2973,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F63" s="49">
         <v>1</v>
@@ -2983,7 +3140,7 @@
     </row>
     <row r="64" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
-        <v>400037</v>
+        <v>700077</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="49"/>
@@ -2991,17 +3148,17 @@
         <v>0</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F64" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="52"/>
       <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
-        <v>500055</v>
+        <v>400040</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="49"/>
@@ -3009,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F65" s="49">
         <v>1</v>
@@ -3019,7 +3176,7 @@
     </row>
     <row r="66" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
-        <v>600057</v>
+        <v>400041</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="49"/>
@@ -3027,19 +3184,17 @@
         <v>0</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F66" s="49">
-        <v>4</v>
-      </c>
-      <c r="G66" s="52" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G66" s="52"/>
       <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
-        <v>600059</v>
+        <v>400042</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="49"/>
@@ -3047,27 +3202,25 @@
         <v>0</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="F67" s="49">
-        <v>4</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G67" s="52"/>
       <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
-        <v>400038</v>
+        <v>500064</v>
       </c>
       <c r="B68" s="48"/>
-      <c r="C68" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="50"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E68" s="51" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F68" s="49">
         <v>1</v>
@@ -3077,43 +3230,47 @@
     </row>
     <row r="69" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
-        <v>400039</v>
+        <v>600066</v>
       </c>
       <c r="B69" s="48"/>
-      <c r="C69" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="50"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E69" s="51" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F69" s="49">
-        <v>1</v>
-      </c>
-      <c r="G69" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
-        <v>400040</v>
+        <v>600068</v>
       </c>
       <c r="B70" s="48"/>
-      <c r="C70" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="50"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E70" s="51" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F70" s="49">
-        <v>2</v>
-      </c>
-      <c r="G70" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
-        <v>600056</v>
+        <v>400043</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="49" t="s">
@@ -3121,19 +3278,17 @@
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="51" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F71" s="49">
-        <v>8</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G71" s="52"/>
       <c r="H71" s="20"/>
     </row>
     <row r="72" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
-        <v>600057</v>
+        <v>400044</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="49" t="s">
@@ -3141,19 +3296,17 @@
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="51" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F72" s="49">
-        <v>6</v>
-      </c>
-      <c r="G72" s="52" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G72" s="52"/>
       <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
-        <v>600058</v>
+        <v>400045</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="49" t="s">
@@ -3161,129 +3314,133 @@
       </c>
       <c r="D73" s="50"/>
       <c r="E73" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="49">
+        <v>2</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47">
+        <v>600065</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="50"/>
+      <c r="E74" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="49">
+        <v>16</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47">
+        <v>600066</v>
+      </c>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="50"/>
+      <c r="E75" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="49">
+        <v>6</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="47">
+        <v>600067</v>
+      </c>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F76" s="49">
         <v>8</v>
       </c>
-      <c r="G73" s="52" t="s">
+      <c r="G76" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="54">
-        <v>600062</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="58" t="s">
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="54">
+        <v>600071</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="57"/>
+      <c r="E77" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F77" s="56">
         <v>8</v>
       </c>
-      <c r="G74" s="59" t="s">
+      <c r="G77" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60">
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="60">
         <v>100003</v>
       </c>
-      <c r="B75" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="64" t="s">
+      <c r="B78" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="62">
+      <c r="F78" s="62">
         <v>2</v>
       </c>
-      <c r="G75" s="65"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66">
-        <v>400041</v>
-      </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76" s="68">
-        <v>2</v>
-      </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66">
-        <v>400042</v>
-      </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="73">
-        <v>2</v>
-      </c>
-      <c r="G77" s="76"/>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66">
-        <v>700068</v>
-      </c>
-      <c r="B78" s="72"/>
-      <c r="C78" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="73">
-        <v>1</v>
-      </c>
-      <c r="G78" s="76"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="66">
-        <v>400043</v>
-      </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="74"/>
-      <c r="E79" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="73">
-        <v>1</v>
-      </c>
-      <c r="G79" s="76"/>
+        <v>400046</v>
+      </c>
+      <c r="B79" s="67"/>
+      <c r="C79" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="69"/>
+      <c r="E79" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="68">
+        <v>2</v>
+      </c>
+      <c r="G79" s="71"/>
       <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="66">
-        <v>400044</v>
+        <v>400047</v>
       </c>
       <c r="B80" s="72"/>
       <c r="C80" s="73" t="s">
@@ -3291,17 +3448,17 @@
       </c>
       <c r="D80" s="74"/>
       <c r="E80" s="75" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F80" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="76"/>
       <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="66">
-        <v>600056</v>
+        <v>700078</v>
       </c>
       <c r="B81" s="72"/>
       <c r="C81" s="73" t="s">
@@ -3309,19 +3466,17 @@
       </c>
       <c r="D81" s="74"/>
       <c r="E81" s="75" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F81" s="73">
-        <v>14</v>
-      </c>
-      <c r="G81" s="76" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G81" s="76"/>
       <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="66">
-        <v>600057</v>
+        <v>400048</v>
       </c>
       <c r="B82" s="72"/>
       <c r="C82" s="73" t="s">
@@ -3329,19 +3484,17 @@
       </c>
       <c r="D82" s="74"/>
       <c r="E82" s="75" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F82" s="73">
-        <v>4</v>
-      </c>
-      <c r="G82" s="76" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G82" s="76"/>
       <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="66">
-        <v>600061</v>
+        <v>400049</v>
       </c>
       <c r="B83" s="72"/>
       <c r="C83" s="73" t="s">
@@ -3349,7 +3502,7 @@
       </c>
       <c r="D83" s="74"/>
       <c r="E83" s="75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83" s="73">
         <v>1</v>
@@ -3357,175 +3510,392 @@
       <c r="G83" s="76"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="77">
-        <v>600064</v>
-      </c>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="81" t="s">
+    <row r="84" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="66">
+        <v>600065</v>
+      </c>
+      <c r="B84" s="72"/>
+      <c r="C84" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="74"/>
+      <c r="E84" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="73">
+        <v>14</v>
+      </c>
+      <c r="G84" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="66">
+        <v>600066</v>
+      </c>
+      <c r="B85" s="72"/>
+      <c r="C85" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="74"/>
+      <c r="E85" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="73">
+        <v>4</v>
+      </c>
+      <c r="G85" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="66">
+        <v>600070</v>
+      </c>
+      <c r="B86" s="72"/>
+      <c r="C86" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="74"/>
+      <c r="E86" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="73">
+        <v>1</v>
+      </c>
+      <c r="G86" s="76"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="77">
+        <v>600073</v>
+      </c>
+      <c r="B87" s="78"/>
+      <c r="C87" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="80"/>
+      <c r="E87" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="79">
-        <v>1</v>
-      </c>
-      <c r="G84" s="82"/>
-      <c r="H84" s="20"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="83">
+      <c r="F87" s="79">
+        <v>1</v>
+      </c>
+      <c r="G87" s="82"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="83">
         <v>100004</v>
       </c>
-      <c r="B85" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="87" t="s">
+      <c r="B88" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="85"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="88">
+      <c r="F88" s="88">
         <v>2</v>
       </c>
-      <c r="G85" s="89"/>
-      <c r="H85" s="20"/>
-    </row>
-    <row r="86" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83">
-        <v>300020</v>
-      </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="90" t="s">
+      <c r="G88" s="89"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="83">
+        <v>300021</v>
+      </c>
+      <c r="B89" s="84"/>
+      <c r="C89" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="86"/>
+      <c r="E89" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="88">
-        <v>1</v>
-      </c>
-      <c r="G86" s="89"/>
-      <c r="H86" s="20"/>
-    </row>
-    <row r="87" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
-        <v>300026</v>
-      </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" s="88">
-        <v>1</v>
-      </c>
-      <c r="G87" s="89"/>
-      <c r="H87" s="20"/>
-    </row>
-    <row r="88" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
-        <v>400045</v>
-      </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" s="85">
-        <v>1</v>
-      </c>
-      <c r="G88" s="94"/>
-      <c r="H88" s="20"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
-        <v>200015</v>
-      </c>
-      <c r="B89" s="92"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="F89" s="85">
-        <v>1</v>
-      </c>
-      <c r="G89" s="94"/>
+      <c r="F89" s="88">
+        <v>1</v>
+      </c>
+      <c r="G89" s="89"/>
       <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="91">
-        <v>400046</v>
-      </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="93"/>
-      <c r="E90" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="85">
-        <v>1</v>
-      </c>
-      <c r="G90" s="94"/>
+        <v>300028</v>
+      </c>
+      <c r="B90" s="84"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="88">
+        <v>1</v>
+      </c>
+      <c r="G90" s="89"/>
       <c r="H90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="91">
-        <v>200016</v>
+        <v>400050</v>
       </c>
       <c r="B91" s="92"/>
-      <c r="C91" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="93"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="93" t="s">
+        <v>0</v>
+      </c>
       <c r="E91" s="87" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F91" s="85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G91" s="94"/>
       <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="95">
-        <v>600060</v>
-      </c>
-      <c r="B92" s="96"/>
-      <c r="C92" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="98"/>
-      <c r="E92" s="99" t="s">
+    </row>
+    <row r="92" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="91">
+        <v>200016</v>
+      </c>
+      <c r="B92" s="92"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F92" s="85">
+        <v>1</v>
+      </c>
+      <c r="G92" s="94"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="91">
+        <v>400051</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="93"/>
+      <c r="E93" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="85">
+        <v>1</v>
+      </c>
+      <c r="G93" s="94"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="91">
+        <v>200017</v>
+      </c>
+      <c r="B94" s="92"/>
+      <c r="C94" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="93"/>
+      <c r="E94" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" s="85">
+        <v>7</v>
+      </c>
+      <c r="G94" s="94"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="95">
+        <v>600069</v>
+      </c>
+      <c r="B95" s="96"/>
+      <c r="C95" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="98"/>
+      <c r="E95" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="97">
+      <c r="F95" s="97">
         <v>4</v>
       </c>
-      <c r="G92" s="100"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="20"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="119">
+        <v>100005</v>
+      </c>
+      <c r="B96" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="121"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="121">
+        <v>1</v>
+      </c>
+      <c r="G96" s="124"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="119">
+        <v>300029</v>
+      </c>
+      <c r="B97" s="120"/>
+      <c r="C97" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="122"/>
+      <c r="E97" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="121">
+        <v>2</v>
+      </c>
+      <c r="G97" s="124"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="119">
+        <v>300030</v>
+      </c>
+      <c r="B98" s="120"/>
+      <c r="C98" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="122"/>
+      <c r="E98" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="121">
+        <v>1</v>
+      </c>
+      <c r="G98" s="124"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="119">
+        <v>300023</v>
+      </c>
+      <c r="B99" s="120"/>
+      <c r="C99" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="122"/>
+      <c r="E99" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="121">
+        <v>1</v>
+      </c>
+      <c r="G99" s="124"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="119">
+        <v>300024</v>
+      </c>
+      <c r="B100" s="120"/>
+      <c r="C100" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="122"/>
+      <c r="E100" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="121">
+        <v>1</v>
+      </c>
+      <c r="G100" s="124"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="119">
+        <v>400052</v>
+      </c>
+      <c r="B101" s="120"/>
+      <c r="C101" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="122"/>
+      <c r="E101" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="121">
+        <v>1</v>
+      </c>
+      <c r="G101" s="124"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="119">
+        <v>400053</v>
+      </c>
+      <c r="B102" s="120"/>
+      <c r="C102" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="122"/>
+      <c r="E102" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="121">
+        <v>1</v>
+      </c>
+      <c r="G102" s="124"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="119">
+        <v>400054</v>
+      </c>
+      <c r="B103" s="120"/>
+      <c r="C103" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="122"/>
+      <c r="E103" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="121">
+        <v>1</v>
+      </c>
+      <c r="G103" s="124"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="125">
+        <v>400055</v>
+      </c>
+      <c r="B104" s="126"/>
+      <c r="C104" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="128"/>
+      <c r="E104" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="127">
+        <v>1</v>
+      </c>
+      <c r="G104" s="130"/>
+      <c r="H104" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:H92">
-    <sortCondition ref="H13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:H104">
+    <sortCondition ref="H104"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="B8:D8"/>
